--- a/database/industries/siman/sekord/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/siman/sekord/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512CD9E8-19B0-4515-BAA8-DBC8CFF4D6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D535FFA-9EFB-4FBC-8A2E-A4221EB67F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>3 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>3 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-16 (11)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -94,10 +91,13 @@
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1402-02-11 (5)</t>
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-11 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +822,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2131662</v>
+        <v>492342</v>
       </c>
       <c r="E11" s="13">
-        <v>492342</v>
+        <v>1074492</v>
       </c>
       <c r="F11" s="13">
-        <v>1074492</v>
+        <v>1804064</v>
       </c>
       <c r="G11" s="13">
-        <v>1804064</v>
+        <v>3107890</v>
       </c>
       <c r="H11" s="13">
-        <v>3107890</v>
+        <v>1177774</v>
       </c>
       <c r="I11" s="13">
-        <v>1177774</v>
+        <v>2322688</v>
       </c>
       <c r="J11" s="13">
-        <v>2322688</v>
+        <v>3741193</v>
       </c>
       <c r="K11" s="13">
-        <v>3741193</v>
+        <v>4867617</v>
       </c>
       <c r="L11" s="13">
-        <v>4867617</v>
+        <v>1002542</v>
       </c>
       <c r="M11" s="13">
-        <v>1002542</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1938409</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1178775</v>
+        <v>-256582</v>
       </c>
       <c r="E12" s="11">
-        <v>-256582</v>
+        <v>-663737</v>
       </c>
       <c r="F12" s="11">
-        <v>-663737</v>
+        <v>-1047793</v>
       </c>
       <c r="G12" s="11">
-        <v>-1047793</v>
+        <v>-1501984</v>
       </c>
       <c r="H12" s="11">
-        <v>-1501984</v>
+        <v>-527019</v>
       </c>
       <c r="I12" s="11">
-        <v>-527019</v>
+        <v>-1100348</v>
       </c>
       <c r="J12" s="11">
-        <v>-1100348</v>
+        <v>-1837147</v>
       </c>
       <c r="K12" s="11">
-        <v>-1837147</v>
+        <v>-2604736</v>
       </c>
       <c r="L12" s="11">
-        <v>-2604736</v>
+        <v>-546982</v>
       </c>
       <c r="M12" s="11">
-        <v>-546982</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1020641</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>952887</v>
+        <v>235760</v>
       </c>
       <c r="E13" s="15">
-        <v>235760</v>
+        <v>410755</v>
       </c>
       <c r="F13" s="15">
-        <v>410755</v>
+        <v>756271</v>
       </c>
       <c r="G13" s="15">
-        <v>756271</v>
+        <v>1605906</v>
       </c>
       <c r="H13" s="15">
-        <v>1605906</v>
+        <v>650755</v>
       </c>
       <c r="I13" s="15">
-        <v>650755</v>
+        <v>1222340</v>
       </c>
       <c r="J13" s="15">
-        <v>1222340</v>
+        <v>1904046</v>
       </c>
       <c r="K13" s="15">
-        <v>1904046</v>
+        <v>2262881</v>
       </c>
       <c r="L13" s="15">
-        <v>2262881</v>
+        <v>455560</v>
       </c>
       <c r="M13" s="15">
-        <v>455560</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>917768</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-390146</v>
+        <v>-57673</v>
       </c>
       <c r="E14" s="11">
-        <v>-57673</v>
+        <v>-131676</v>
       </c>
       <c r="F14" s="11">
-        <v>-131676</v>
+        <v>-252424</v>
       </c>
       <c r="G14" s="11">
-        <v>-252424</v>
+        <v>-559368</v>
       </c>
       <c r="H14" s="11">
-        <v>-559368</v>
+        <v>-275815</v>
       </c>
       <c r="I14" s="11">
-        <v>-275815</v>
+        <v>-676131</v>
       </c>
       <c r="J14" s="11">
-        <v>-676131</v>
+        <v>-986709</v>
       </c>
       <c r="K14" s="11">
-        <v>-986709</v>
+        <v>-1171115</v>
       </c>
       <c r="L14" s="11">
-        <v>-1171115</v>
+        <v>-134874</v>
       </c>
       <c r="M14" s="11">
-        <v>-134874</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-321251</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -982,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>0</v>
+        <v>-20831</v>
       </c>
       <c r="H15" s="13">
-        <v>-20831</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -994,34 +993,34 @@
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <v>0</v>
+        <v>-36548</v>
       </c>
       <c r="L15" s="13">
-        <v>-36548</v>
+        <v>0</v>
       </c>
       <c r="M15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>32992</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-101483</v>
       </c>
       <c r="F16" s="11">
         <v>-101483</v>
       </c>
       <c r="G16" s="11">
-        <v>-101483</v>
+        <v>-90661</v>
       </c>
       <c r="H16" s="11">
-        <v>-90661</v>
+        <v>12736</v>
       </c>
       <c r="I16" s="11">
         <v>12736</v>
@@ -1030,232 +1029,232 @@
         <v>12736</v>
       </c>
       <c r="K16" s="11">
-        <v>12736</v>
+        <v>18710</v>
       </c>
       <c r="L16" s="11">
-        <v>18710</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>117951</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>595733</v>
+        <v>178087</v>
       </c>
       <c r="E17" s="15">
-        <v>178087</v>
+        <v>177596</v>
       </c>
       <c r="F17" s="15">
-        <v>177596</v>
+        <v>402364</v>
       </c>
       <c r="G17" s="15">
-        <v>402364</v>
+        <v>935046</v>
       </c>
       <c r="H17" s="15">
-        <v>935046</v>
+        <v>387676</v>
       </c>
       <c r="I17" s="15">
-        <v>387676</v>
+        <v>558945</v>
       </c>
       <c r="J17" s="15">
-        <v>558945</v>
+        <v>930073</v>
       </c>
       <c r="K17" s="15">
-        <v>930073</v>
+        <v>1073928</v>
       </c>
       <c r="L17" s="15">
-        <v>1073928</v>
+        <v>320686</v>
       </c>
       <c r="M17" s="15">
-        <v>320686</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>714468</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-161539</v>
+        <v>-29864</v>
       </c>
       <c r="E18" s="11">
-        <v>-29864</v>
+        <v>-57825</v>
       </c>
       <c r="F18" s="11">
-        <v>-57825</v>
+        <v>-88458</v>
       </c>
       <c r="G18" s="11">
-        <v>-88458</v>
+        <v>-114568</v>
       </c>
       <c r="H18" s="11">
-        <v>-114568</v>
+        <v>-18165</v>
       </c>
       <c r="I18" s="11">
-        <v>-18165</v>
+        <v>-33762</v>
       </c>
       <c r="J18" s="11">
-        <v>-33762</v>
+        <v>-64940</v>
       </c>
       <c r="K18" s="11">
-        <v>-64940</v>
+        <v>-83519</v>
       </c>
       <c r="L18" s="11">
-        <v>-83519</v>
+        <v>-16785</v>
       </c>
       <c r="M18" s="11">
-        <v>-16785</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-31425</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>21435</v>
+        <v>1085</v>
       </c>
       <c r="E19" s="13">
-        <v>1085</v>
+        <v>15175</v>
       </c>
       <c r="F19" s="13">
-        <v>15175</v>
+        <v>5887</v>
       </c>
       <c r="G19" s="13">
-        <v>5887</v>
+        <v>23069</v>
       </c>
       <c r="H19" s="13">
-        <v>23069</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>0</v>
+        <v>42368</v>
       </c>
       <c r="J19" s="13">
-        <v>42368</v>
+        <v>71179</v>
       </c>
       <c r="K19" s="13">
-        <v>71179</v>
+        <v>132452</v>
       </c>
       <c r="L19" s="13">
-        <v>132452</v>
+        <v>95067</v>
       </c>
       <c r="M19" s="13">
-        <v>95067</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>86752</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>455629</v>
+        <v>149308</v>
       </c>
       <c r="E20" s="17">
-        <v>149308</v>
+        <v>134946</v>
       </c>
       <c r="F20" s="17">
-        <v>134946</v>
+        <v>319793</v>
       </c>
       <c r="G20" s="17">
-        <v>319793</v>
+        <v>843547</v>
       </c>
       <c r="H20" s="17">
-        <v>843547</v>
+        <v>369511</v>
       </c>
       <c r="I20" s="17">
-        <v>369511</v>
+        <v>567551</v>
       </c>
       <c r="J20" s="17">
-        <v>567551</v>
+        <v>936312</v>
       </c>
       <c r="K20" s="17">
-        <v>936312</v>
+        <v>1122861</v>
       </c>
       <c r="L20" s="17">
-        <v>1122861</v>
+        <v>398968</v>
       </c>
       <c r="M20" s="17">
-        <v>398968</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>769795</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-75646</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>-22210</v>
       </c>
       <c r="F21" s="13">
         <v>-22210</v>
       </c>
       <c r="G21" s="13">
-        <v>-22210</v>
+        <v>-127229</v>
       </c>
       <c r="H21" s="13">
-        <v>-127229</v>
+        <v>-50050</v>
       </c>
       <c r="I21" s="13">
-        <v>-50050</v>
+        <v>-98945</v>
       </c>
       <c r="J21" s="13">
-        <v>-98945</v>
+        <v>-160691</v>
       </c>
       <c r="K21" s="13">
-        <v>-160691</v>
+        <v>-199523</v>
       </c>
       <c r="L21" s="13">
-        <v>-199523</v>
+        <v>-83783</v>
       </c>
       <c r="M21" s="13">
-        <v>-83783</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-161657</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>379983</v>
+        <v>149308</v>
       </c>
       <c r="E22" s="17">
-        <v>149308</v>
+        <v>112736</v>
       </c>
       <c r="F22" s="17">
-        <v>112736</v>
+        <v>297583</v>
       </c>
       <c r="G22" s="17">
-        <v>297583</v>
+        <v>716318</v>
       </c>
       <c r="H22" s="17">
-        <v>716318</v>
+        <v>319461</v>
       </c>
       <c r="I22" s="17">
-        <v>319461</v>
+        <v>468606</v>
       </c>
       <c r="J22" s="17">
-        <v>468606</v>
+        <v>775621</v>
       </c>
       <c r="K22" s="17">
-        <v>775621</v>
+        <v>923338</v>
       </c>
       <c r="L22" s="17">
-        <v>923338</v>
+        <v>315185</v>
       </c>
       <c r="M22" s="17">
-        <v>315185</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>608138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -1291,79 +1290,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>379983</v>
+        <v>149308</v>
       </c>
       <c r="E24" s="17">
-        <v>149308</v>
+        <v>112736</v>
       </c>
       <c r="F24" s="17">
-        <v>112736</v>
+        <v>297583</v>
       </c>
       <c r="G24" s="17">
-        <v>297583</v>
+        <v>716318</v>
       </c>
       <c r="H24" s="17">
-        <v>716318</v>
+        <v>319461</v>
       </c>
       <c r="I24" s="17">
-        <v>319461</v>
+        <v>468606</v>
       </c>
       <c r="J24" s="17">
-        <v>468606</v>
+        <v>775621</v>
       </c>
       <c r="K24" s="17">
-        <v>775621</v>
+        <v>923759</v>
       </c>
       <c r="L24" s="17">
-        <v>923338</v>
+        <v>315185</v>
       </c>
       <c r="M24" s="17">
-        <v>315185</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>608138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E25" s="13">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F25" s="13">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="G25" s="13">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="H25" s="13">
-        <v>326</v>
+        <v>145</v>
       </c>
       <c r="I25" s="13">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="J25" s="13">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="K25" s="13">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="L25" s="13">
-        <v>420</v>
+        <v>143</v>
       </c>
       <c r="M25" s="13">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1399,43 +1398,43 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E27" s="13">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F27" s="13">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="G27" s="13">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="H27" s="13">
-        <v>326</v>
+        <v>145</v>
       </c>
       <c r="I27" s="13">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="J27" s="13">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="K27" s="13">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="L27" s="13">
-        <v>420</v>
+        <v>143</v>
       </c>
       <c r="M27" s="13">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
